--- a/Desktop/MYSARAH/IQC COVER ICPMS/IQC POW 190924.xlsx
+++ b/Desktop/MYSARAH/IQC COVER ICPMS/IQC POW 190924.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\MYSARAH\IQC COVER ICPMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E1846-B49E-4E29-A32E-CD1388C6CE7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038AC354-1BB7-4FB2-A1E9-E97753D923E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,77 +732,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -821,23 +750,66 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,14 +824,43 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,11 +869,10 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -1107,37 +1107,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="55" t="s">
         <v>41</v>
       </c>
@@ -1148,48 +1148,48 @@
       <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="58" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="58" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1208,111 +1208,111 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="39">
         <v>0.5</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="39">
         <v>48.371000000000002</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="39">
         <v>4597.1850000000004</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="32">
         <f>D8-C8</f>
         <v>4548.8140000000003</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="28">
         <f>((D8-C8)/1000)/(2.5/B8)</f>
         <v>0.90976279999999998</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="28">
+      <c r="H8" s="46"/>
+      <c r="I8" s="23">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>4.3594067662844301E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="61" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="29"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="39">
         <v>0.5</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="39">
         <v>48.371000000000002</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="39">
         <v>4799.9049999999997</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="32">
         <f>D10-C10</f>
         <v>4751.5339999999997</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="28">
         <f>((D10-C10)/1000)/(2.5/B10)</f>
         <v>0.9503067999999999</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="29"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="31" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="30"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1331,111 +1331,111 @@
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="39">
         <v>0.5</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="39">
         <v>16.928000000000001</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="39">
         <v>298.42099999999999</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="32">
         <f>D14-C14</f>
         <v>281.49299999999999</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="28">
         <f>((D14-C14)/1000)/(0.15/B14)</f>
         <v>0.93830999999999998</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="28">
+      <c r="H14" s="31"/>
+      <c r="I14" s="23">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>1.0762642394776241E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="31" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="29"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="39">
         <v>0.5</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="39">
         <v>16.928000000000001</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="39">
         <v>301.46699999999998</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="32">
         <f>D16-C16</f>
         <v>284.53899999999999</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="28">
         <f>((D16-C16)/1000)/(0.15/B16)</f>
         <v>0.94846333333333332</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="29"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="31" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="30"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1454,111 +1454,111 @@
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="39">
         <v>0.5</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="39">
         <v>21.568999999999999</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="39">
         <v>497.55500000000001</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="32">
         <f>D20-C20</f>
         <v>475.98599999999999</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="28">
         <f>((D20-C20)/1000)/(0.25/B20)</f>
         <v>0.95197199999999993</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="28">
+      <c r="H20" s="31"/>
+      <c r="I20" s="23">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>1.1528045694424293E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="31" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="29"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="39">
         <v>0.5</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="39">
         <v>21.568999999999999</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="39">
         <v>503.07400000000001</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="32">
         <f>D22-C22</f>
         <v>481.505</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="28">
         <f>((D22-C22)/1000)/(0.25/B22)</f>
         <v>0.96301000000000003</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="29"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="31" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="30"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1577,97 +1577,97 @@
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="39">
         <v>0.5</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="39">
         <v>247.124</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="39">
         <v>9590.3209999999999</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="32">
         <f>D26-C26</f>
         <v>9343.1970000000001</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="28">
         <f>((D26-C26)/1000)/(5/B26)</f>
         <v>0.93431969999999998</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="28">
+      <c r="H26" s="31"/>
+      <c r="I26" s="23">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>2.637475602546957E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="31" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="29"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="39">
         <v>0.5</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="39">
         <v>247.124</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="39">
         <v>9565.7109999999993</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="32">
         <f>D28-C28</f>
         <v>9318.5869999999995</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="28">
         <f>((D28-C28)/1000)/(5/B28)</f>
         <v>0.93185869999999993</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="29"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="31" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="30"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -1681,54 +1681,54 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="25" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -12317,30 +12317,58 @@
     <protectedRange sqref="D3" name="Range1"/>
   </protectedRanges>
   <mergeCells count="92">
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="E31:I32"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="G26:H26"/>
@@ -12357,58 +12385,30 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="E31:I32"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:I34"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -12442,89 +12442,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="58">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="41">
         <v>270824</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="58" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="58" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="44" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
@@ -12543,111 +12543,111 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="72">
         <v>1.5089999999999999</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="39">
         <v>12.92</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="39">
         <v>4634.5950000000003</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="71">
         <f>D8-C8</f>
         <v>4621.6750000000002</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="28">
         <f>((D8-C8)/1000)/(7.5/B8)</f>
         <v>0.92988101000000001</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="28">
+      <c r="H8" s="70"/>
+      <c r="I8" s="23">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>2.8683982581502853E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="31" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="64"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="72">
         <v>1.508</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="39">
         <v>12.92</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="39">
         <v>4769.0919999999996</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="71">
         <f>D10-C10</f>
         <v>4756.1719999999996</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="28">
         <f>((D10-C10)/1000)/(7.5/B10)</f>
         <v>0.95630765013333319</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="64"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="31" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="44" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
@@ -12666,111 +12666,111 @@
       <c r="E13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="72">
         <v>1.5089999999999999</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="39">
         <v>12.866</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="39">
         <v>297.87</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="71">
         <f>D14-C14</f>
         <v>285.00400000000002</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="28">
         <f>((D14-C14)/1000)/(0.45/B14)</f>
         <v>0.95571341333333337</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="28">
+      <c r="H14" s="70"/>
+      <c r="I14" s="23">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>1.5907764672596383E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="31" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="72">
         <v>1.508</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="39">
         <v>12.866</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="39">
         <v>293.37200000000001</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="71">
         <f>D16-C16</f>
         <v>280.50600000000003</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="28">
         <f>((D16-C16)/1000)/(0.45/B16)</f>
         <v>0.94000677333333338</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="31" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="65"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="44" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
@@ -12789,111 +12789,111 @@
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="72">
         <v>1.5089999999999999</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="39">
         <v>2.4009999999999998</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="39">
         <v>469.69099999999997</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="32">
         <f>D20-C20</f>
         <v>467.28999999999996</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="28">
         <f>((D20-C20)/1000)/(0.75/B20)</f>
         <v>0.94018747999999996</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="28">
+      <c r="H20" s="70"/>
+      <c r="I20" s="23">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>2.2507001037856921E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="31" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="72">
         <v>1.508</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="39">
         <v>2.4009999999999998</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="39">
         <v>480.32799999999997</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="32">
         <f>D22-C22</f>
         <v>477.92699999999996</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="28">
         <f>((D22-C22)/1000)/(0.75/B22)</f>
         <v>0.96095188799999998</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="69"/>
-      <c r="I22" s="64"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="31" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="65"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="44" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
       <c r="I24" s="1" t="s">
         <v>6</v>
       </c>
@@ -12912,147 +12912,147 @@
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="72">
         <v>1.5089999999999999</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="39">
         <v>60.470999999999997</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="39">
         <v>9391.4459999999999</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="32">
         <f>D26-C26</f>
         <v>9330.9750000000004</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="28">
         <f>((D26-C26)/1000)/(15/B26)</f>
         <v>0.93869608500000001</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="28">
+      <c r="H26" s="70"/>
+      <c r="I26" s="23">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>3.8358500896175261E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="31" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="66"/>
-      <c r="I27" s="64"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="72">
         <v>1.508</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="39">
         <v>60.470999999999997</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="39">
         <v>9427.3070000000007</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="32">
         <f>D28-C28</f>
         <v>9366.8360000000011</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="28">
         <f>((D28-C28)/1000)/(15/B28)</f>
         <v>0.94167924586666674</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="64"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="31" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="65"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="25" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
@@ -23638,30 +23638,58 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:I33"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="G26:H26"/>
@@ -23678,58 +23706,30 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:I33"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
